--- a/latency_results.xlsx
+++ b/latency_results.xlsx
@@ -25,10 +25,13 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="1.5244in"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.889in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.8091in"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.0083in"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.889in"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.178in" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -57,9 +60,22 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>cifar10+resnet18</text:p>
           </table:table-cell>
-          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>660*554.12s=6095.32mins</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>1648.73mins</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>mnist+cnn</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>20*141.42s=47.14mins</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>10.23mins</text:p>
           </table:table-cell>
         </table:table-row>
       </table:table>
@@ -73,11 +89,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-03-18T16:55:26.102361901</meta:creation-date>
-    <dc:date>2024-03-18T17:00:14.826792742</dc:date>
-    <meta:editing-duration>PT4M48S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="4" meta:object-count="0"/>
+    <dc:date>2024-03-21T22:02:02.485120985</dc:date>
+    <meta:editing-duration>PT11M51S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:generator>LibreOffice/7.3.7.2$Linux_X86_64 LibreOffice_project/30$Build-2</meta:generator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="8" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -88,15 +104,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">8691</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">903</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">11028</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">1355</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">6</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -155,9 +171,9 @@
       <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">lAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtQAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
@@ -169,6 +185,7 @@
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
       <config:config-item-map-named config:name="ScriptConfiguration">
         <config:config-item-map-entry config:name="Sheet1">
